--- a/凡人飞升传/门派.xlsx
+++ b/凡人飞升传/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>序号</t>
   </si>
@@ -90,6 +90,24 @@
     <t>体魄*1.2；木系*2</t>
   </si>
   <si>
+    <t>开天门</t>
+  </si>
+  <si>
+    <t>葵水魔攻</t>
+  </si>
+  <si>
+    <t>体魄*1.2；身法*1.2</t>
+  </si>
+  <si>
+    <t>玄剑派</t>
+  </si>
+  <si>
+    <t>青元剑诀</t>
+  </si>
+  <si>
+    <t>增加真气*150%攻击力，持续5回合</t>
+  </si>
+  <si>
     <t>岗海宗</t>
   </si>
   <si>
@@ -138,6 +156,15 @@
     <t>增加真气*75攻击力，增加根骨*75%的防御力，持续6回合</t>
   </si>
   <si>
+    <t>鬼灵门</t>
+  </si>
+  <si>
+    <t>九天雷闪</t>
+  </si>
+  <si>
+    <t>体魄*1.4；身法*1.4</t>
+  </si>
+  <si>
     <t>青阳门</t>
   </si>
   <si>
@@ -180,6 +207,30 @@
     <t>增加真气*300%的生命值，真气*50%的闪避，持续31回合</t>
   </si>
   <si>
+    <t>巨剑门</t>
+  </si>
+  <si>
+    <t>金莲灵本</t>
+  </si>
+  <si>
+    <t>灵兽山</t>
+  </si>
+  <si>
+    <t>乾坤斩</t>
+  </si>
+  <si>
+    <t>真气*4.5；火系*2</t>
+  </si>
+  <si>
+    <t>天星宗</t>
+  </si>
+  <si>
+    <t>缥缈剑诀</t>
+  </si>
+  <si>
+    <t>每次闪避敌人攻击后，下次攻击临时增加闪避*100%的攻击，持续6回合</t>
+  </si>
+  <si>
     <t>掩月宗</t>
   </si>
   <si>
@@ -196,9 +247,6 @@
   </si>
   <si>
     <t>阴罗宗</t>
-  </si>
-  <si>
-    <t>鬼灵门</t>
   </si>
   <si>
     <t>星宫</t>
@@ -243,18 +291,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,62 +320,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,14 +352,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -377,9 +390,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,24 +419,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,61 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +505,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,30 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +565,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +625,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -647,26 +696,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,21 +750,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -735,7 +769,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,9 +785,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,189 +798,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,8 +1327,8 @@
   <sheetPr/>
   <dimension ref="A1:K16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="$A40:$XFD53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,997 +1338,1055 @@
     <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="7" max="7" width="70.125" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
     <col min="11" max="11" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>14</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
+      <c r="A8" s="3">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:11">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:11">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:11">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:11">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:11">
+      <c r="A13" s="3">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:11">
+      <c r="A14" s="3">
         <v>24</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
-        <v>25</v>
+      <c r="B14" s="4">
+        <v>2</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="4">
+    <row r="15" s="1" customFormat="1" spans="1:11">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
-        <v>2</v>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8" t="s">
+        <v>50</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>28</v>
+      <c r="G15" s="9" t="s">
+        <v>51</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>29</v>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:11">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:11">
-      <c r="A9" s="4">
-        <v>9</v>
+    <row r="17" s="1" customFormat="1" spans="1:11">
+      <c r="A17" s="3">
+        <v>6</v>
       </c>
-      <c r="B9" s="5">
-        <v>2</v>
+      <c r="B17" s="4">
+        <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5" t="s">
-        <v>31</v>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>56</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>32</v>
+      <c r="K17" s="4" t="s">
+        <v>54</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="4">
-        <v>10</v>
+    <row r="18" s="1" customFormat="1" spans="1:11">
+      <c r="A18" s="3">
+        <v>7</v>
       </c>
-      <c r="B10" s="5">
-        <v>2</v>
+      <c r="B18" s="4">
+        <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5" t="s">
-        <v>34</v>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4" t="s">
+        <v>58</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:11">
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:11">
+      <c r="A20" s="3">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="4">
-        <v>16</v>
+    <row r="21" s="1" customFormat="1" spans="1:11">
+      <c r="A21" s="3">
+        <v>42</v>
       </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="4">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="B21" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
+      <c r="C21" s="10" t="s">
+        <v>65</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9" t="s">
-        <v>41</v>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="s">
+        <v>66</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>42</v>
+      <c r="I21" s="10" t="s">
+        <v>67</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:11">
-      <c r="A13" s="4">
-        <v>5</v>
+    <row r="22" s="1" customFormat="1" spans="1:11">
+      <c r="A22" s="3">
+        <v>43</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
+      <c r="C22" s="4" t="s">
+        <v>68</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>44</v>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>69</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>45</v>
+      <c r="G22" s="4" t="s">
+        <v>70</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:11">
-      <c r="A14" s="4">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="4">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:11">
-      <c r="A16" s="4">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:11">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:11">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:11">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:11">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:11">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:11">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:11">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:11">
+      <c r="A24" s="3">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:11">
+      <c r="A25" s="3">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:11">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:11">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:11">
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:11">
+      <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>58</v>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>75</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:11">
-      <c r="A24" s="4">
+    <row r="30" s="1" customFormat="1" spans="1:11">
+      <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
-        <v>59</v>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>76</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:11">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:11">
-      <c r="A26" s="4">
+    <row r="31" s="1" customFormat="1" spans="1:11">
+      <c r="A31" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>61</v>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>77</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:11">
-      <c r="A27" s="4">
+    <row r="32" s="1" customFormat="1" spans="1:11">
+      <c r="A32" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
-        <v>56</v>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>73</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:11">
-      <c r="A28" s="4">
+    <row r="33" s="1" customFormat="1" spans="1:11">
+      <c r="A33" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>62</v>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>78</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:11">
-      <c r="A29" s="4">
+    <row r="34" s="1" customFormat="1" spans="1:11">
+      <c r="A34" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>63</v>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>79</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:11">
-      <c r="A30" s="4">
+    <row r="35" s="1" customFormat="1" spans="1:11">
+      <c r="A35" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>64</v>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>80</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:11">
-      <c r="A31" s="4">
+    <row r="36" s="1" customFormat="1" spans="1:11">
+      <c r="A36" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>65</v>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>81</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:11">
-      <c r="A32" s="4">
+    <row r="37" s="1" customFormat="1" spans="1:11">
+      <c r="A37" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>66</v>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>82</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:11">
-      <c r="A33" s="4">
+    <row r="38" s="1" customFormat="1" spans="1:11">
+      <c r="A38" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>67</v>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>83</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:11">
-      <c r="A34" s="4">
+    <row r="39" s="1" customFormat="1" spans="1:11">
+      <c r="A39" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>68</v>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>84</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:11">
-      <c r="A35" s="4">
+    <row r="40" s="1" customFormat="1" spans="1:11">
+      <c r="A40" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
-        <v>69</v>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>85</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:11">
-      <c r="A36" s="4">
+    <row r="41" s="1" customFormat="1" spans="1:11">
+      <c r="A41" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>54</v>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>71</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:11">
-      <c r="A37" s="4">
+    <row r="42" s="1" customFormat="1" spans="1:11">
+      <c r="A42" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>70</v>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>86</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:11">
-      <c r="A38" s="4">
+    <row r="43" s="1" customFormat="1" spans="1:11">
+      <c r="A43" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>71</v>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>87</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:11">
-      <c r="A39" s="11">
+    <row r="44" s="1" customFormat="1" spans="1:11">
+      <c r="A44" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12" t="s">
-        <v>72</v>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>88</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:11">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:11">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="1:11">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="1:11">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="1:11">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="1:11">
-      <c r="A45" s="4">
+    <row r="45" s="1" customFormat="1" spans="1:11">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:11">
-      <c r="A46" s="4">
+    <row r="46" s="1" customFormat="1" spans="1:11">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:11">
-      <c r="A47" s="4">
+    <row r="47" s="1" customFormat="1" spans="1:11">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:11">
-      <c r="A48" s="4">
+    <row r="48" s="1" customFormat="1" spans="1:11">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:11">
-      <c r="A49" s="4">
+    <row r="49" s="1" customFormat="1" spans="1:11">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:11">
-      <c r="A50" s="4">
+    <row r="50" s="1" customFormat="1" spans="1:11">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:11">
-      <c r="A51" s="4">
+    <row r="51" s="1" customFormat="1" spans="1:11">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:11">
-      <c r="A52" s="4">
+    <row r="52" s="1" customFormat="1" spans="1:11">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:11">
-      <c r="A53" s="4">
+    <row r="53" s="1" customFormat="1" spans="1:11">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
     </row>
-    <row r="54" s="1" customFormat="1"/>
+    <row r="54" s="1" customFormat="1" spans="1:11">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
     <row r="55" s="1" customFormat="1"/>
     <row r="56" s="1" customFormat="1"/>
     <row r="57" s="1" customFormat="1"/>
@@ -18644,7 +18732,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K40 K2:K39 K41:K53">
       <formula1>"增加灵气获取速度,提升修炼速度"</formula1>
     </dataValidation>
   </dataValidations>

--- a/凡人飞升传/门派.xlsx
+++ b/凡人飞升传/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>序号</t>
   </si>
@@ -240,6 +240,12 @@
     <t>洛云宗</t>
   </si>
   <si>
+    <t>伽罗无双</t>
+  </si>
+  <si>
+    <t>根骨*2,；体魄*2</t>
+  </si>
+  <si>
     <t>青灵门</t>
   </si>
   <si>
@@ -284,6 +290,24 @@
   <si>
     <t>厉虎</t>
   </si>
+  <si>
+    <t>霸山门</t>
+  </si>
+  <si>
+    <t>罗烟决</t>
+  </si>
+  <si>
+    <t>增加身法*150%闪避，持续5回合</t>
+  </si>
+  <si>
+    <t>魁星岛</t>
+  </si>
+  <si>
+    <t>真魔血甲</t>
+  </si>
+  <si>
+    <t>恢复体魄*250%的生命值</t>
+  </si>
 </sst>
 </file>
 
@@ -291,11 +315,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +353,58 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -336,8 +412,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -360,60 +450,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,14 +468,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,6 +477,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,14 +498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,7 +519,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,37 +633,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,13 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,79 +663,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,18 +700,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +738,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -716,36 +772,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,17 +794,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,10 +833,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -813,137 +845,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,6 +1007,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1327,8 +1362,8 @@
   <sheetPr/>
   <dimension ref="A1:K16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I18" sqref="I26 I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1767,7 +1802,7 @@
       <c r="H18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J18" s="4"/>
@@ -1920,7 +1955,9 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
@@ -1928,8 +1965,12 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
@@ -1939,7 +1980,7 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1973,7 +2014,7 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1990,7 +2031,7 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2007,7 +2048,7 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2041,7 +2082,7 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2058,7 +2099,7 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2075,7 +2116,7 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2092,7 +2133,7 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2109,7 +2150,7 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2126,7 +2167,7 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2143,7 +2184,7 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2160,7 +2201,7 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2194,7 +2235,7 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2211,7 +2252,7 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2228,7 +2269,7 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2243,12 +2284,20 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2258,12 +2307,20 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="F46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>

--- a/凡人飞升传/门派.xlsx
+++ b/凡人飞升传/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>序号</t>
   </si>
@@ -108,6 +108,15 @@
     <t>增加真气*150%攻击力，持续5回合</t>
   </si>
   <si>
+    <t>霸山门</t>
+  </si>
+  <si>
+    <t>罗烟决</t>
+  </si>
+  <si>
+    <t>增加身法*150%闪避，持续5回合</t>
+  </si>
+  <si>
     <t>岗海宗</t>
   </si>
   <si>
@@ -163,6 +172,15 @@
   </si>
   <si>
     <t>体魄*1.4；身法*1.4</t>
+  </si>
+  <si>
+    <t>黑煞会</t>
+  </si>
+  <si>
+    <t>玄阴大法</t>
+  </si>
+  <si>
+    <t>身法*1.5；金系*3</t>
   </si>
   <si>
     <t>青阳门</t>
@@ -231,6 +249,21 @@
     <t>每次闪避敌人攻击后，下次攻击临时增加闪避*100%的攻击，持续6回合</t>
   </si>
   <si>
+    <t>伽罗无双</t>
+  </si>
+  <si>
+    <t>根骨*2,；体魄*2</t>
+  </si>
+  <si>
+    <t>魁星岛</t>
+  </si>
+  <si>
+    <t>真魔血甲</t>
+  </si>
+  <si>
+    <t>恢复体魄*250%的生命值</t>
+  </si>
+  <si>
     <t>掩月宗</t>
   </si>
   <si>
@@ -238,12 +271,6 @@
   </si>
   <si>
     <t>洛云宗</t>
-  </si>
-  <si>
-    <t>伽罗无双</t>
-  </si>
-  <si>
-    <t>根骨*2,；体魄*2</t>
   </si>
   <si>
     <t>青灵门</t>
@@ -290,34 +317,16 @@
   <si>
     <t>厉虎</t>
   </si>
-  <si>
-    <t>霸山门</t>
-  </si>
-  <si>
-    <t>罗烟决</t>
-  </si>
-  <si>
-    <t>增加身法*150%闪避，持续5回合</t>
-  </si>
-  <si>
-    <t>魁星岛</t>
-  </si>
-  <si>
-    <t>真魔血甲</t>
-  </si>
-  <si>
-    <t>恢复体魄*250%的生命值</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -360,6 +369,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -367,9 +391,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,13 +430,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -398,7 +437,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,28 +461,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -443,24 +476,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,14 +486,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,13 +507,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,7 +528,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF9FBFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +552,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,19 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,13 +618,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,25 +684,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,67 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,15 +749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -748,6 +760,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,21 +836,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -833,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,137 +866,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,28 +1009,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,6 +1101,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F9FBFA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1362,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:K16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I18" sqref="I26 I18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1417,6 +1458,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="3">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="4">
@@ -1440,7 +1482,8 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3">
-        <v>11</v>
+        <f t="shared" ref="A3:A12" si="0">ROW()-1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1463,7 +1506,8 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="3">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1486,7 +1530,8 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="3">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1496,7 +1541,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
         <v>19</v>
@@ -1509,7 +1554,8 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="3">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1532,7 +1578,8 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="3">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1555,7 +1602,8 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
       <c r="A8" s="3">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1578,10 +1626,11 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:11">
       <c r="A9" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>30</v>
@@ -1601,170 +1650,178 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:11">
       <c r="A10" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
       <c r="A11" s="3">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="K11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:11">
       <c r="A12" s="3">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="3">
-        <v>16</v>
+        <f t="shared" ref="A13:A22" si="1">ROW()-1</f>
+        <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:11">
       <c r="A14" s="3">
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="3">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>3</v>
+      <c r="B15" s="7">
+        <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="I15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="3">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>3</v>
+      <c r="B16" s="7">
+        <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:11">
       <c r="A17" s="3">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -1774,66 +1831,69 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:11">
       <c r="A18" s="3">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:11">
       <c r="A19" s="3">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:11">
       <c r="A20" s="3">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
@@ -1843,92 +1903,108 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>35</v>
+      <c r="I20" s="16" t="s">
+        <v>65</v>
       </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="3">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
+      <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="G21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:11">
       <c r="A22" s="3">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:11">
       <c r="A23" s="3">
-        <v>15</v>
+        <f t="shared" ref="A23:A32" si="2">ROW()-1</f>
+        <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="13">
+        <v>3</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:11">
       <c r="A24" s="3">
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1936,513 +2012,538 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:11">
       <c r="A25" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
       <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:11">
       <c r="A26" s="3">
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>74</v>
+      <c r="F26" s="12" t="s">
+        <v>80</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>75</v>
+      <c r="G26" s="12" t="s">
+        <v>81</v>
       </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
       <c r="A27" s="3">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>76</v>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
+        <v>82</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:11">
       <c r="A28" s="3">
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>72</v>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>83</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:11">
       <c r="A29" s="3">
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>77</v>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
+        <v>84</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:11">
       <c r="A30" s="3">
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>78</v>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
+        <v>85</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:11">
       <c r="A31" s="3">
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>79</v>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
+        <v>83</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:11">
       <c r="A32" s="3">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>73</v>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
+        <v>86</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:11">
       <c r="A33" s="3">
-        <v>27</v>
+        <f t="shared" ref="A33:A42" si="3">ROW()-1</f>
+        <v>32</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>80</v>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>87</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:11">
       <c r="A34" s="3">
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>81</v>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>88</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:11">
       <c r="A35" s="3">
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>82</v>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
+        <v>84</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:11">
       <c r="A36" s="3">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
-        <v>83</v>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
+        <v>89</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:11">
       <c r="A37" s="3">
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>84</v>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
+        <v>90</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:11">
       <c r="A38" s="3">
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>85</v>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
+        <v>91</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:11">
       <c r="A39" s="3">
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
-        <v>86</v>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
+        <v>92</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:11">
       <c r="A40" s="3">
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>87</v>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14" t="s">
+        <v>93</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:11">
       <c r="A41" s="3">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
-        <v>71</v>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
+        <v>94</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:11">
       <c r="A42" s="3">
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>41</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>88</v>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14" t="s">
+        <v>95</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:11">
       <c r="A43" s="3">
-        <v>37</v>
+        <f t="shared" ref="A43:A53" si="4">ROW()-1</f>
+        <v>42</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>89</v>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14" t="s">
+        <v>96</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:11">
       <c r="A44" s="3">
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>90</v>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14" t="s">
+        <v>82</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:11">
       <c r="A45" s="3">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B45" s="4">
-        <v>1</v>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14" t="s">
+        <v>97</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:11">
       <c r="A46" s="3">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="B46" s="4">
-        <v>3</v>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>98</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:11">
       <c r="A47" s="3">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:11">
       <c r="A48" s="3">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:11">
       <c r="A49" s="3">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:11">
       <c r="A50" s="3">
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:11">
       <c r="A51" s="3">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:11">
       <c r="A52" s="3">
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:11">
       <c r="A53" s="3">
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:11">
       <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
     </row>
     <row r="55" s="1" customFormat="1"/>
     <row r="56" s="1" customFormat="1"/>

--- a/凡人飞升传/门派.xlsx
+++ b/凡人飞升传/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>序号</t>
   </si>
@@ -264,6 +264,15 @@
     <t>恢复体魄*250%的生命值</t>
   </si>
   <si>
+    <t>千幻宗</t>
+  </si>
+  <si>
+    <t>死亡之音</t>
+  </si>
+  <si>
+    <t>根骨*3；水系*2</t>
+  </si>
+  <si>
     <t>掩月宗</t>
   </si>
   <si>
@@ -323,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -369,21 +378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -391,15 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +395,29 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -421,39 +432,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,23 +464,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,14 +516,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,7 +549,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,19 +585,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,49 +627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,37 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +675,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,37 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,17 +758,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,8 +814,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -798,31 +833,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,17 +855,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -854,10 +863,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -866,19 +875,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,112 +896,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,8 +1412,8 @@
   <sheetPr/>
   <dimension ref="A1:K16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A53"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1964,7 +1973,7 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:11">
       <c r="A23" s="3">
-        <f t="shared" ref="A23:A32" si="2">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>22</v>
       </c>
       <c r="B23" s="13">
@@ -1988,7 +1997,7 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:11">
       <c r="A24" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>23</v>
       </c>
       <c r="B24" s="4">
@@ -2012,7 +2021,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:11">
       <c r="A25" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>24</v>
       </c>
       <c r="B25" s="4">
@@ -2036,7 +2045,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:11">
       <c r="A26" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>25</v>
       </c>
       <c r="B26" s="4">
@@ -2060,30 +2069,36 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
       <c r="A27" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>26</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:11">
       <c r="A28" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>27</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -2096,12 +2111,12 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:11">
       <c r="A29" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>28</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2114,12 +2129,12 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:11">
       <c r="A30" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>29</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -2132,25 +2147,25 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:11">
       <c r="A31" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>30</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:11">
       <c r="A32" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>31</v>
       </c>
       <c r="B32" s="14"/>
@@ -2161,19 +2176,19 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:11">
       <c r="A33" s="3">
-        <f t="shared" ref="A33:A42" si="3">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>32</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -2186,12 +2201,12 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:11">
       <c r="A34" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -2204,12 +2219,12 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:11">
       <c r="A35" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>34</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -2222,12 +2237,12 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:11">
       <c r="A36" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>35</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -2240,12 +2255,12 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:11">
       <c r="A37" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>36</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -2258,12 +2273,12 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="1:11">
       <c r="A38" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>37</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -2276,12 +2291,12 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:11">
       <c r="A39" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>38</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -2294,12 +2309,12 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:11">
       <c r="A40" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>39</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -2312,12 +2327,12 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="1:11">
       <c r="A41" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>40</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -2330,12 +2345,12 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:11">
       <c r="A42" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>41</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -2348,48 +2363,48 @@
     </row>
     <row r="43" s="1" customFormat="1" spans="1:11">
       <c r="A43" s="3">
-        <f t="shared" ref="A43:A53" si="4">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>42</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:11">
       <c r="A44" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>43</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:11">
       <c r="A45" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>44</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -2402,12 +2417,12 @@
     </row>
     <row r="46" s="1" customFormat="1" spans="1:11">
       <c r="A46" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>45</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -2420,12 +2435,12 @@
     </row>
     <row r="47" s="1" customFormat="1" spans="1:11">
       <c r="A47" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>46</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -2438,11 +2453,13 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="1:11">
       <c r="A48" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>47</v>
       </c>
       <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="C48" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -2454,7 +2471,7 @@
     </row>
     <row r="49" s="1" customFormat="1" spans="1:11">
       <c r="A49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A43:A53" si="2">ROW()-1</f>
         <v>48</v>
       </c>
       <c r="B49" s="14"/>
@@ -2470,7 +2487,7 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:11">
       <c r="A50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B50" s="14"/>
@@ -2486,7 +2503,7 @@
     </row>
     <row r="51" s="1" customFormat="1" spans="1:11">
       <c r="A51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B51" s="14"/>
@@ -2502,7 +2519,7 @@
     </row>
     <row r="52" s="1" customFormat="1" spans="1:11">
       <c r="A52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B52" s="14"/>
@@ -2518,7 +2535,7 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:11">
       <c r="A53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B53" s="14"/>
@@ -18887,7 +18904,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:K16384">
-    <sortCondition ref="B2"/>
+    <sortCondition ref="B14"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K40 K2:K39 K41:K53">

--- a/凡人飞升传/门派.xlsx
+++ b/凡人飞升传/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>序号</t>
   </si>
@@ -326,16 +326,43 @@
   <si>
     <t>厉虎</t>
   </si>
+  <si>
+    <t>清虚门</t>
+  </si>
+  <si>
+    <t>惊神刺</t>
+  </si>
+  <si>
+    <t>真气*3；身法*2</t>
+  </si>
+  <si>
+    <t>血煞派</t>
+  </si>
+  <si>
+    <t>六极真魔功</t>
+  </si>
+  <si>
+    <t>增加身法*75%闪避，根骨75%防御，持续6回合</t>
+  </si>
+  <si>
+    <t>浩然阁</t>
+  </si>
+  <si>
+    <t>金磁重光</t>
+  </si>
+  <si>
+    <t>暴击值增加200%，持续6回合</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -379,22 +406,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -408,9 +434,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,14 +446,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,25 +465,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,6 +484,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,28 +519,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,6 +536,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,6 +576,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -567,66 +750,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -634,102 +757,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,17 +785,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,16 +803,42 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -812,13 +859,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,30 +882,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -863,10 +890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,31 +902,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,100 +935,100 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,8 +1439,8 @@
   <sheetPr/>
   <dimension ref="A1:K16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:K27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1731,7 +1758,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="3">
-        <f t="shared" ref="A13:A22" si="1">ROW()-1</f>
+        <f t="shared" ref="A13:A48" si="1">ROW()-1</f>
         <v>12</v>
       </c>
       <c r="B13" s="7">
@@ -1973,7 +2000,7 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:11">
       <c r="A23" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="13">
@@ -1997,7 +2024,7 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:11">
       <c r="A24" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="4">
@@ -2021,7 +2048,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:11">
       <c r="A25" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="4">
@@ -2045,7 +2072,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:11">
       <c r="A26" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="4">
@@ -2069,7 +2096,7 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
       <c r="A27" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="4">
@@ -2093,7 +2120,7 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:11">
       <c r="A28" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="14"/>
@@ -2111,7 +2138,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:11">
       <c r="A29" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="14"/>
@@ -2129,7 +2156,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:11">
       <c r="A30" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="14"/>
@@ -2147,7 +2174,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:11">
       <c r="A31" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="14"/>
@@ -2165,7 +2192,7 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="1:11">
       <c r="A32" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="14"/>
@@ -2183,7 +2210,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:11">
       <c r="A33" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="14"/>
@@ -2201,7 +2228,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:11">
       <c r="A34" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="14"/>
@@ -2219,7 +2246,7 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:11">
       <c r="A35" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="14"/>
@@ -2237,7 +2264,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:11">
       <c r="A36" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="14"/>
@@ -2255,7 +2282,7 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:11">
       <c r="A37" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="14"/>
@@ -2273,7 +2300,7 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="1:11">
       <c r="A38" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="14"/>
@@ -2291,7 +2318,7 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:11">
       <c r="A39" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="14"/>
@@ -2309,7 +2336,7 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:11">
       <c r="A40" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="14"/>
@@ -2327,7 +2354,7 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="1:11">
       <c r="A41" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="14"/>
@@ -2345,7 +2372,7 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:11">
       <c r="A42" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="14"/>
@@ -2363,7 +2390,7 @@
     </row>
     <row r="43" s="1" customFormat="1" spans="1:11">
       <c r="A43" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="14"/>
@@ -2381,7 +2408,7 @@
     </row>
     <row r="44" s="1" customFormat="1" spans="1:11">
       <c r="A44" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="14"/>
@@ -2399,7 +2426,7 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:11">
       <c r="A45" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="14"/>
@@ -2417,7 +2444,7 @@
     </row>
     <row r="46" s="1" customFormat="1" spans="1:11">
       <c r="A46" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="14"/>
@@ -2435,7 +2462,7 @@
     </row>
     <row r="47" s="1" customFormat="1" spans="1:11">
       <c r="A47" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="14"/>
@@ -2453,7 +2480,7 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="1:11">
       <c r="A48" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="14"/>
@@ -2474,14 +2501,22 @@
         <f t="shared" ref="A43:A53" si="2">ROW()-1</f>
         <v>48</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="14">
+        <v>3</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="H49" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
     </row>
@@ -2490,12 +2525,20 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="14">
+        <v>2</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="F50" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -2506,12 +2549,20 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="14">
+        <v>2</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="F51" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>

--- a/凡人飞升传/门派.xlsx
+++ b/凡人飞升传/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>序号</t>
   </si>
@@ -282,6 +282,12 @@
     <t>洛云宗</t>
   </si>
   <si>
+    <t>孔雀明王决</t>
+  </si>
+  <si>
+    <t>每次闪躲后，增加闪避*30%的攻击，持续31回合</t>
+  </si>
+  <si>
     <t>青灵门</t>
   </si>
   <si>
@@ -301,6 +307,12 @@
   </si>
   <si>
     <t>御灵宗</t>
+  </si>
+  <si>
+    <t>血炼神光</t>
+  </si>
+  <si>
+    <t>共计造成伤害30%转化为生命，持续6回合</t>
   </si>
   <si>
     <t>青元宫</t>
@@ -352,6 +364,42 @@
   </si>
   <si>
     <t>暴击值增加200%，持续6回合</t>
+  </si>
+  <si>
+    <t>惊龙会</t>
+  </si>
+  <si>
+    <t>正阳劲</t>
+  </si>
+  <si>
+    <t>根骨*2</t>
+  </si>
+  <si>
+    <t>圣魔门</t>
+  </si>
+  <si>
+    <t>寂灭指</t>
+  </si>
+  <si>
+    <t>体魄*4；水系*3</t>
+  </si>
+  <si>
+    <t>化意门</t>
+  </si>
+  <si>
+    <t>北极元光</t>
+  </si>
+  <si>
+    <t>金系伤害*8；火系伤害*8</t>
+  </si>
+  <si>
+    <t>万毒教</t>
+  </si>
+  <si>
+    <t>黄泉诀</t>
+  </si>
+  <si>
+    <t>随喜伤害*8；土系伤害*8</t>
   </si>
 </sst>
 </file>
@@ -406,29 +454,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,21 +483,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,10 +513,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,25 +551,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,26 +581,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,13 +624,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,115 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +720,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,22 +842,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,17 +887,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,6 +917,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -890,10 +938,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,19 +950,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,112 +971,112 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1439,8 +1487,8 @@
   <sheetPr/>
   <dimension ref="A1:K16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1452,7 +1500,7 @@
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="70.125" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="25.375" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
     <col min="11" max="11" width="18.25" customWidth="1"/>
   </cols>
@@ -2159,14 +2207,20 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="14">
+        <v>5</v>
+      </c>
       <c r="C30" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -2179,7 +2233,7 @@
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -2215,7 +2269,7 @@
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -2233,7 +2287,7 @@
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -2251,7 +2305,7 @@
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -2287,7 +2341,7 @@
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -2305,7 +2359,7 @@
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -2321,14 +2375,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="14">
+        <v>4</v>
+      </c>
       <c r="C39" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -2341,7 +2401,7 @@
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -2359,7 +2419,7 @@
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -2377,7 +2437,7 @@
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -2395,7 +2455,7 @@
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -2413,7 +2473,7 @@
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -2449,7 +2509,7 @@
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -2467,7 +2527,7 @@
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -2485,7 +2545,7 @@
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -2505,17 +2565,17 @@
         <v>3</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
@@ -2529,15 +2589,15 @@
         <v>2</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2553,15 +2613,15 @@
         <v>2</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -2573,14 +2633,22 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="14">
+        <v>1</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="H52" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
     </row>
@@ -2589,31 +2657,60 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="14">
+        <v>5</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="H53" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:11">
       <c r="A54" s="3"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="14">
+        <v>4</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="H54" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
     </row>
-    <row r="55" s="1" customFormat="1"/>
+    <row r="55" s="1" customFormat="1" spans="2:9">
+      <c r="B55" s="1">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="56" s="1" customFormat="1"/>
     <row r="57" s="1" customFormat="1"/>
     <row r="58" s="1" customFormat="1"/>

--- a/凡人飞升传/门派.xlsx
+++ b/凡人飞升传/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
   <si>
     <t>序号</t>
   </si>
@@ -72,7 +72,7 @@
     <t>身法*2</t>
   </si>
   <si>
-    <t>野狼帮</t>
+    <t>黄风谷</t>
   </si>
   <si>
     <t>火弹术</t>
@@ -81,7 +81,7 @@
     <t>真气*2</t>
   </si>
   <si>
-    <t>黄风谷</t>
+    <t>野狼帮</t>
   </si>
   <si>
     <t>长春功</t>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>增加身法*150%闪避，持续5回合</t>
+  </si>
+  <si>
+    <t>惊龙会</t>
+  </si>
+  <si>
+    <t>正阳劲</t>
+  </si>
+  <si>
+    <t>根骨*2</t>
   </si>
   <si>
     <t>岗海宗</t>
@@ -181,6 +190,24 @@
   </si>
   <si>
     <t>身法*1.5；金系*3</t>
+  </si>
+  <si>
+    <t>血煞派</t>
+  </si>
+  <si>
+    <t>六极真魔功</t>
+  </si>
+  <si>
+    <t>增加身法*75%闪避，根骨75%防御，持续6回合</t>
+  </si>
+  <si>
+    <t>浩然阁</t>
+  </si>
+  <si>
+    <t>金磁重光</t>
+  </si>
+  <si>
+    <t>暴击值增加200%，持续6回合</t>
   </si>
   <si>
     <t>青阳门</t>
@@ -273,10 +300,58 @@
     <t>根骨*3；水系*2</t>
   </si>
   <si>
-    <t>掩月宗</t>
+    <t>清虚门</t>
+  </si>
+  <si>
+    <t>惊神刺</t>
+  </si>
+  <si>
+    <t>真气*3；身法*2</t>
   </si>
   <si>
     <t>妙音宗</t>
+  </si>
+  <si>
+    <t>天刹真魔攻</t>
+  </si>
+  <si>
+    <t>根骨*4；木系*3</t>
+  </si>
+  <si>
+    <t>御灵宗</t>
+  </si>
+  <si>
+    <t>血炼神光</t>
+  </si>
+  <si>
+    <t>共计造成伤害30%转化为生命，持续6回合</t>
+  </si>
+  <si>
+    <t>化意门</t>
+  </si>
+  <si>
+    <t>北极元光</t>
+  </si>
+  <si>
+    <t>金系伤害*8；火系伤害*8</t>
+  </si>
+  <si>
+    <t>名剑宗</t>
+  </si>
+  <si>
+    <t>七鬼卸甲</t>
+  </si>
+  <si>
+    <t>降低敌方20%防御力，持续5回合</t>
+  </si>
+  <si>
+    <t>天机阁</t>
+  </si>
+  <si>
+    <t>太白剑诀</t>
+  </si>
+  <si>
+    <t>真气*5.5；土系*3</t>
   </si>
   <si>
     <t>洛云宗</t>
@@ -286,6 +361,45 @@
   </si>
   <si>
     <t>每次闪躲后，增加闪避*30%的攻击，持续31回合</t>
+  </si>
+  <si>
+    <t>圣魔门</t>
+  </si>
+  <si>
+    <t>寂灭指</t>
+  </si>
+  <si>
+    <t>体魄*4；水系*3</t>
+  </si>
+  <si>
+    <t>万毒教</t>
+  </si>
+  <si>
+    <t>黄泉诀</t>
+  </si>
+  <si>
+    <t>水系伤害*8；土系伤害*8</t>
+  </si>
+  <si>
+    <t>圣天宗</t>
+  </si>
+  <si>
+    <t>放下屠刀</t>
+  </si>
+  <si>
+    <t>降低敌方的20%攻击力，持续5回合</t>
+  </si>
+  <si>
+    <t>九仙宫</t>
+  </si>
+  <si>
+    <t>道化黄泉</t>
+  </si>
+  <si>
+    <t>根骨*2.2；真气*3</t>
+  </si>
+  <si>
+    <t>掩月宗</t>
   </si>
   <si>
     <t>青灵门</t>
@@ -304,15 +418,6 @@
   </si>
   <si>
     <t>天兰圣女</t>
-  </si>
-  <si>
-    <t>御灵宗</t>
-  </si>
-  <si>
-    <t>血炼神光</t>
-  </si>
-  <si>
-    <t>共计造成伤害30%转化为生命，持续6回合</t>
   </si>
   <si>
     <t>青元宫</t>
@@ -338,77 +443,14 @@
   <si>
     <t>厉虎</t>
   </si>
-  <si>
-    <t>清虚门</t>
-  </si>
-  <si>
-    <t>惊神刺</t>
-  </si>
-  <si>
-    <t>真气*3；身法*2</t>
-  </si>
-  <si>
-    <t>血煞派</t>
-  </si>
-  <si>
-    <t>六极真魔功</t>
-  </si>
-  <si>
-    <t>增加身法*75%闪避，根骨75%防御，持续6回合</t>
-  </si>
-  <si>
-    <t>浩然阁</t>
-  </si>
-  <si>
-    <t>金磁重光</t>
-  </si>
-  <si>
-    <t>暴击值增加200%，持续6回合</t>
-  </si>
-  <si>
-    <t>惊龙会</t>
-  </si>
-  <si>
-    <t>正阳劲</t>
-  </si>
-  <si>
-    <t>根骨*2</t>
-  </si>
-  <si>
-    <t>圣魔门</t>
-  </si>
-  <si>
-    <t>寂灭指</t>
-  </si>
-  <si>
-    <t>体魄*4；水系*3</t>
-  </si>
-  <si>
-    <t>化意门</t>
-  </si>
-  <si>
-    <t>北极元光</t>
-  </si>
-  <si>
-    <t>金系伤害*8；火系伤害*8</t>
-  </si>
-  <si>
-    <t>万毒教</t>
-  </si>
-  <si>
-    <t>黄泉诀</t>
-  </si>
-  <si>
-    <t>随喜伤害*8；土系伤害*8</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -454,21 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,34 +517,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,55 +532,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,6 +551,89 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,19 +666,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,37 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,49 +810,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,19 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,37 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,11 +875,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,66 +944,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -930,6 +963,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -938,10 +980,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,137 +992,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,9 +1139,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,13 +1159,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,8 +1535,8 @@
   <sheetPr/>
   <dimension ref="A1:K16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I36" sqref="H36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1566,7 +1614,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A12" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A26" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4">
@@ -1625,7 +1673,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
         <v>19</v>
@@ -1737,357 +1785,357 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:11">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="3">
-        <f t="shared" ref="A13:A48" si="1">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:11">
       <c r="A14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:11">
       <c r="A17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="12" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="I17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:11">
       <c r="A18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="G18" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:11">
       <c r="A19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="G19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:11">
       <c r="A20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="16" t="s">
+      <c r="F20" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="G20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:11">
       <c r="A22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:11">
       <c r="A23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13" t="s">
+      <c r="C23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="I23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:11">
       <c r="A24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2096,625 +2144,736 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:11">
       <c r="A25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:11">
       <c r="A26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="13">
         <v>3</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="I26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
       <c r="A27" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>26</v>
       </c>
       <c r="B27" s="4">
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="G27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:11">
       <c r="A28" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:11">
       <c r="A29" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="B29" s="4">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:11">
       <c r="A30" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="14">
-        <v>5</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:11">
       <c r="A31" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:11">
       <c r="A32" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>31</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="B32" s="6">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:11">
       <c r="A33" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="B33" s="6">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:11">
       <c r="A34" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="B34" s="6">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:11">
       <c r="A35" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>34</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="B35" s="6">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:11">
       <c r="A36" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>35</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="B36" s="6">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:11">
       <c r="A37" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>36</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="B37" s="4">
+        <v>5</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:11">
       <c r="A38" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="B38" s="4">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:11">
       <c r="A39" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>38</v>
       </c>
-      <c r="B39" s="14">
-        <v>4</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="B39" s="4">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:11">
       <c r="A40" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>39</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:11">
       <c r="A41" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>40</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:11">
       <c r="A42" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>41</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:11">
       <c r="A43" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>42</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:11">
       <c r="A44" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>43</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:11">
       <c r="A45" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>44</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:11">
       <c r="A46" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>45</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:11">
       <c r="A47" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>46</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:11">
       <c r="A48" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>47</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:11">
       <c r="A49" s="3">
-        <f t="shared" ref="A43:A53" si="2">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>48</v>
       </c>
-      <c r="B49" s="14">
-        <v>3</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:11">
       <c r="A50" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>49</v>
       </c>
-      <c r="B50" s="14">
-        <v>2</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:11">
       <c r="A51" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>50</v>
       </c>
-      <c r="B51" s="14">
-        <v>2</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:11">
       <c r="A52" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>51</v>
       </c>
-      <c r="B52" s="14">
-        <v>1</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:11">
       <c r="A53" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>52</v>
       </c>
-      <c r="B53" s="14">
-        <v>5</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:11">
-      <c r="A54" s="3"/>
-      <c r="B54" s="14">
-        <v>4</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="A54" s="3">
+        <f>ROW()-1</f>
+        <v>53</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="2:9">
-      <c r="B55" s="1">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I55" s="1" t="s">
+    <row r="55" s="1" customFormat="1" spans="1:11">
+      <c r="A55" s="3">
+        <f>ROW()-1</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:11">
+      <c r="A56" s="3">
+        <f>ROW()-1</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16" t="s">
         <v>127</v>
       </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
     </row>
-    <row r="56" s="1" customFormat="1"/>
-    <row r="57" s="1" customFormat="1"/>
-    <row r="58" s="1" customFormat="1"/>
-    <row r="59" s="1" customFormat="1"/>
+    <row r="57" s="1" customFormat="1" spans="1:11">
+      <c r="A57" s="3">
+        <f>ROW()-1</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:11">
+      <c r="A58" s="3">
+        <f>ROW()-1</f>
+        <v>57</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:11">
+      <c r="A59" s="3">
+        <f>ROW()-1</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+    </row>
     <row r="60" s="1" customFormat="1"/>
     <row r="61" s="1" customFormat="1"/>
     <row r="62" s="1" customFormat="1"/>
@@ -19052,7 +19211,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:K16384">
-    <sortCondition ref="B14"/>
+    <sortCondition ref="B22"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K40 K2:K39 K41:K53">

--- a/凡人飞升传/门派.xlsx
+++ b/凡人飞升传/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="148">
   <si>
     <t>序号</t>
   </si>
@@ -402,6 +402,12 @@
     <t>掩月宗</t>
   </si>
   <si>
+    <t>炫光化物</t>
+  </si>
+  <si>
+    <t>身法*4；金系*3</t>
+  </si>
+  <si>
     <t>青灵门</t>
   </si>
   <si>
@@ -443,6 +449,18 @@
   <si>
     <t>厉虎</t>
   </si>
+  <si>
+    <t>幽冥妙法</t>
+  </si>
+  <si>
+    <t>六连殿</t>
+  </si>
+  <si>
+    <t>回春决</t>
+  </si>
+  <si>
+    <t>自己回合结束时恢复体魄*70%的血量，持续3回合</t>
+  </si>
 </sst>
 </file>
 
@@ -450,9 +468,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -492,13 +510,6 @@
       <color theme="7" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,9 +574,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,14 +636,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,13 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +714,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,19 +798,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,115 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,21 +913,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +967,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -980,10 +998,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,137 +1010,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,9 +1187,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1536,7 +1551,7 @@
   <dimension ref="A1:K16384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I36" sqref="H36:I36"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1614,7 +1629,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A26" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A59" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4">
@@ -2112,7 +2127,7 @@
       <c r="H23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J23" s="4"/>
@@ -2192,7 +2207,7 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
       <c r="A27" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="4">
@@ -2216,7 +2231,7 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:11">
       <c r="A28" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="4">
@@ -2232,7 +2247,7 @@
       <c r="H28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="17" t="s">
         <v>87</v>
       </c>
       <c r="J28" s="4"/>
@@ -2240,7 +2255,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:11">
       <c r="A29" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="4">
@@ -2264,7 +2279,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:11">
       <c r="A30" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="4">
@@ -2288,7 +2303,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:11">
       <c r="A31" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="4">
@@ -2312,7 +2327,7 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="1:11">
       <c r="A32" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="6">
@@ -2336,7 +2351,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:11">
       <c r="A33" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="6">
@@ -2360,7 +2375,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:11">
       <c r="A34" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="6">
@@ -2384,7 +2399,7 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:11">
       <c r="A35" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="6">
@@ -2408,7 +2423,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:11">
       <c r="A36" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="6">
@@ -2432,7 +2447,7 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:11">
       <c r="A37" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="4">
@@ -2456,7 +2471,7 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="1:11">
       <c r="A38" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="4">
@@ -2480,7 +2495,7 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:11">
       <c r="A39" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="4">
@@ -2504,7 +2519,7 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:11">
       <c r="A40" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="4">
@@ -2528,7 +2543,7 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="1:11">
       <c r="A41" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="4">
@@ -2552,10 +2567,12 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:11">
       <c r="A42" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="16">
+        <v>4</v>
+      </c>
       <c r="C42" s="16" t="s">
         <v>127</v>
       </c>
@@ -2563,19 +2580,23 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
+      <c r="H42" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:11">
       <c r="A43" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -2588,7 +2609,7 @@
     </row>
     <row r="44" s="1" customFormat="1" spans="1:11">
       <c r="A44" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="16"/>
@@ -2606,12 +2627,12 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:11">
       <c r="A45" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -2624,12 +2645,12 @@
     </row>
     <row r="46" s="1" customFormat="1" spans="1:11">
       <c r="A46" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -2642,12 +2663,12 @@
     </row>
     <row r="47" s="1" customFormat="1" spans="1:11">
       <c r="A47" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -2660,7 +2681,7 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="1:11">
       <c r="A48" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="16"/>
@@ -2678,12 +2699,12 @@
     </row>
     <row r="49" s="1" customFormat="1" spans="1:11">
       <c r="A49" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -2696,12 +2717,12 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:11">
       <c r="A50" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -2714,12 +2735,12 @@
     </row>
     <row r="51" s="1" customFormat="1" spans="1:11">
       <c r="A51" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -2732,12 +2753,12 @@
     </row>
     <row r="52" s="1" customFormat="1" spans="1:11">
       <c r="A52" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -2750,12 +2771,12 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:11">
       <c r="A53" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -2768,12 +2789,12 @@
     </row>
     <row r="54" s="1" customFormat="1" spans="1:11">
       <c r="A54" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -2786,12 +2807,12 @@
     </row>
     <row r="55" s="1" customFormat="1" spans="1:11">
       <c r="A55" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
@@ -2804,7 +2825,7 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="1:11">
       <c r="A56" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="16"/>
@@ -2822,12 +2843,12 @@
     </row>
     <row r="57" s="1" customFormat="1" spans="1:11">
       <c r="A57" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
@@ -2840,42 +2861,68 @@
     </row>
     <row r="58" s="1" customFormat="1" spans="1:11">
       <c r="A58" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:11">
       <c r="A59" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
     </row>
-    <row r="60" s="1" customFormat="1"/>
-    <row r="61" s="1" customFormat="1"/>
+    <row r="60" s="1" customFormat="1" spans="2:11">
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:7">
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="62" s="1" customFormat="1"/>
     <row r="63" s="1" customFormat="1"/>
     <row r="64" s="1" customFormat="1"/>
